--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Test\Automation_HP\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="phone" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>phonenumber</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve">                                               </t>
+  </si>
+  <si>
+    <t>0975401920</t>
+  </si>
+  <si>
+    <t>0973953206</t>
   </si>
 </sst>
 </file>
@@ -549,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,7 +580,7 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>14</v>
@@ -608,7 +614,7 @@
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A5" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>17</v>
@@ -630,7 +636,7 @@
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>10</v>
@@ -641,7 +647,7 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -652,7 +658,7 @@
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>18</v>
@@ -663,7 +669,7 @@
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A10" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>19</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A11" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
       <c r="A12" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>21</v>
@@ -707,7 +713,7 @@
     </row>
     <row r="14" spans="1:5" s="3" customFormat="1" ht="30.75" thickBot="1">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -726,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Test\Automation_HP\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="phone" sheetId="1" r:id="rId1"/>
     <sheet name="pass" sheetId="3" r:id="rId2"/>
-    <sheet name="Search" sheetId="4" r:id="rId3"/>
+    <sheet name="Checkout" sheetId="5" r:id="rId3"/>
+    <sheet name="Search" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>phonenumber</t>
   </si>
@@ -103,6 +104,36 @@
   </si>
   <si>
     <t>0973953206</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Quận Tân Bình</t>
+  </si>
+  <si>
+    <t>123 Ngiếm Tuất Độ</t>
+  </si>
+  <si>
+    <t>Tới lấy ngày 07/07/2003</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>358 Cộng Hòa, Phường 13, Quận Tân Bình</t>
+  </si>
+  <si>
+    <t>Phường 13</t>
+  </si>
+  <si>
+    <t>HomeNumber</t>
   </si>
 </sst>
 </file>
@@ -170,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -197,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -730,6 +764,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30">
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Test\Automation_HP\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -127,13 +127,13 @@
     <t>Address2</t>
   </si>
   <si>
-    <t>358 Cộng Hòa, Phường 13, Quận Tân Bình</t>
-  </si>
-  <si>
     <t>Phường 13</t>
   </si>
   <si>
     <t>HomeNumber</t>
+  </si>
+  <si>
+    <t>359 Cộng Hòa, Phường 13, Quận Tân Bình</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -778,7 +778,7 @@
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>25</v>
       </c>
@@ -789,21 +789,21 @@
         <v>31</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>29</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -115,25 +115,25 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Quận Tân Bình</t>
-  </si>
-  <si>
-    <t>123 Ngiếm Tuất Độ</t>
-  </si>
-  <si>
     <t>Tới lấy ngày 07/07/2003</t>
   </si>
   <si>
     <t>Address2</t>
   </si>
   <si>
-    <t>Phường 13</t>
-  </si>
-  <si>
     <t>HomeNumber</t>
   </si>
   <si>
-    <t>359 Cộng Hòa, Phường 13, Quận Tân Bình</t>
+    <t>Quận Tân Phú</t>
+  </si>
+  <si>
+    <t>472 - 474 Lê Trọng Tấn, P. Tây Thạnh, Q. Tân Phú</t>
+  </si>
+  <si>
+    <t>Phường Tây Thạnh</t>
+  </si>
+  <si>
+    <t>472 - 474 Lê Trọng Tấn</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>27</v>
@@ -797,19 +797,19 @@
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\Automation_Test\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Test\DATN_HP\Automation_Test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,16 +124,16 @@
     <t>HomeNumber</t>
   </si>
   <si>
-    <t>Quận Tân Phú</t>
-  </si>
-  <si>
-    <t>472 - 474 Lê Trọng Tấn, P. Tây Thạnh, Q. Tân Phú</t>
-  </si>
-  <si>
-    <t>Phường Tây Thạnh</t>
-  </si>
-  <si>
     <t>472 - 474 Lê Trọng Tấn</t>
+  </si>
+  <si>
+    <t>Quận 10</t>
+  </si>
+  <si>
+    <t>347 Nguyễn Tri Phương, Phường 5, Quận 10, TP. HCM</t>
+  </si>
+  <si>
+    <t>Phường 5</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,18 +795,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>28</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -127,13 +127,13 @@
     <t>472 - 474 Lê Trọng Tấn</t>
   </si>
   <si>
-    <t>Quận 10</t>
-  </si>
-  <si>
-    <t>347 Nguyễn Tri Phương, Phường 5, Quận 10, TP. HCM</t>
-  </si>
-  <si>
     <t>Phường 5</t>
+  </si>
+  <si>
+    <t>Quận 9</t>
+  </si>
+  <si>
+    <t>241 Lê Văn Việt, P. Hiệp Phú, Q.9</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,15 +795,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>31</v>
